--- a/data/trans_bre/P16B02-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P16B02-Edad-trans_bre.xlsx
@@ -562,7 +562,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -577,7 +577,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P16B02-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P16B02-Edad-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -604,32 +604,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>13,19</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,68</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,7</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>23,39%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-14,07%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>27,95%</t>
         </is>
       </c>
     </row>
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,92; 32,04</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,7; 10,05</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,86; 32,43</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,72; 72,58</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,71; 18,57</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,92; 93,87</t>
         </is>
       </c>
     </row>
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,21</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,05</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,01</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,3%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,71%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,36%</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,32; 19,06</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,36; 17,92</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,73; 10,58</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,9; 34,23</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,88; 35,91</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,34; 23,19</t>
         </is>
       </c>
     </row>
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,58</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,21</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,08</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,64%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,21%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>23,2%</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,46; 22,07</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,5; 15,9</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,3; 24,37</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,81; 34,47</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,01; 25,91</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,81; 57,38</t>
         </is>
       </c>
     </row>
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,72</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,43</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,43</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,97%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,11%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,08%</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,99; 17,46</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,81; 16,77</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,08; 13,65</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,63; 27,59</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,63; 25,85</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,24; 22,73</t>
         </is>
       </c>
     </row>
@@ -924,32 +924,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,98</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,83</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>16,84</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,15%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,17%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,7%</t>
         </is>
       </c>
     </row>
@@ -962,32 +962,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,7; 11,23</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,3; 8,44</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,1; 28,2</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,36; 14,32</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,9; 10,72</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,21; 47,14</t>
         </is>
       </c>
     </row>
@@ -1004,32 +1004,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,84</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,35</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,08</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,09%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,43%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,09%</t>
         </is>
       </c>
     </row>
@@ -1042,32 +1042,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,98; 9,04</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,16; 6,91</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,82; 6,26</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,19; 10,32</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,25; 7,67</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,3; 7,45</t>
         </is>
       </c>
     </row>
@@ -1084,32 +1084,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,21</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,09</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,01</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,0%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,05%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,54%</t>
         </is>
       </c>
     </row>
@@ -1122,32 +1122,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,84; 10,92</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,27; 7,54</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,7; 13,77</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,29; 14,69</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,58; 10,36</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,78; 21,73</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P16B02-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P16B02-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -594,7 +594,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -674,7 +674,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -754,7 +754,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -834,7 +834,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -914,7 +914,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -994,7 +994,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1004,32 +1004,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>2,84</t>
+          <t>0,22</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>1,35</t>
+          <t>-1,12</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-0,08</t>
+          <t>2,28</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>3,09%</t>
+          <t>0,24%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>1,43%</t>
+          <t>-1,17%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-0,09%</t>
+          <t>2,63%</t>
         </is>
       </c>
     </row>
@@ -1042,39 +1042,39 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-1,98; 9,04</t>
+          <t>-7,07; 10,19</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-2,16; 6,91</t>
+          <t>-5,94; 6,21</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-5,82; 6,26</t>
+          <t>-7,52; 14,39</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-2,19; 10,32</t>
+          <t>-7,33; 12,17</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-2,25; 7,67</t>
+          <t>-6,08; 6,86</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-6,3; 7,45</t>
+          <t>-7,93; 18,91</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1084,32 +1084,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>6,21</t>
+          <t>4,97</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>3,09</t>
+          <t>3,53</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>9,01</t>
+          <t>-1,67</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>8,0%</t>
+          <t>5,41%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>4,05%</t>
+          <t>3,78%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>13,54%</t>
+          <t>-1,81%</t>
         </is>
       </c>
     </row>
@@ -1122,44 +1122,124 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>-1,45; 13,95</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>-1,28; 11,37</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>-8,17; 5,76</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>-1,49; 16,64</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>-1,3; 13,57</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>-8,66; 6,45</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>6,21</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>3,09</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>9,01</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>8,0%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>4,05%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>13,54%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>1,84; 10,92</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>-1,27; 7,54</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>4,7; 13,77</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
         <is>
           <t>2,29; 14,69</t>
         </is>
       </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>-1,58; 10,36</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>6,78; 21,73</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
@@ -1169,6 +1249,7 @@
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_bre/P16B02-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P16B02-Edad-trans_bre.xlsx
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-6,92; 32,04</t>
+          <t>-6,26; 31,67</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-24,7; 10,05</t>
+          <t>-25,69; 9,68</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-6,86; 32,43</t>
+          <t>-6,1; 31,45</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-9,72; 72,58</t>
+          <t>-8,7; 74,52</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-34,71; 18,57</t>
+          <t>-35,19; 19,44</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-11,92; 93,87</t>
+          <t>-11,09; 98,39</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-11,32; 19,06</t>
+          <t>-10,28; 20,14</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-8,36; 17,92</t>
+          <t>-7,79; 18,38</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-16,73; 10,58</t>
+          <t>-16,48; 10,53</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-14,9; 34,23</t>
+          <t>-13,03; 36,06</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-12,88; 35,91</t>
+          <t>-11,98; 37,07</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-25,34; 23,19</t>
+          <t>-26,71; 22,32</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,46; 22,07</t>
+          <t>-1,06; 22,39</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-8,5; 15,9</t>
+          <t>-9,42; 14,14</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,3; 24,37</t>
+          <t>-0,12; 24,06</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,81; 34,47</t>
+          <t>-1,2; 35,33</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-11,01; 25,91</t>
+          <t>-12,27; 22,62</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,81; 57,38</t>
+          <t>0,24; 56,81</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-7,99; 17,46</t>
+          <t>-8,06; 17,4</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-3,81; 16,77</t>
+          <t>-3,72; 18,7</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-9,08; 13,65</t>
+          <t>-9,02; 12,08</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-9,63; 27,59</t>
+          <t>-10,0; 26,88</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-4,63; 25,85</t>
+          <t>-4,3; 28,86</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-12,24; 22,73</t>
+          <t>-12,27; 19,74</t>
         </is>
       </c>
     </row>
@@ -962,32 +962,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-7,7; 11,23</t>
+          <t>-8,58; 12,5</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-11,3; 8,44</t>
+          <t>-11,51; 7,77</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>7,1; 28,2</t>
+          <t>6,4; 28,58</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-8,36; 14,32</t>
+          <t>-9,44; 16,51</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-12,9; 10,72</t>
+          <t>-12,92; 10,02</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>9,21; 47,14</t>
+          <t>8,49; 48,06</t>
         </is>
       </c>
     </row>
@@ -1042,32 +1042,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-7,07; 10,19</t>
+          <t>-7,0; 11,0</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-5,94; 6,21</t>
+          <t>-7,28; 5,05</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-7,52; 14,39</t>
+          <t>-6,88; 14,75</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-7,33; 12,17</t>
+          <t>-7,3; 13,03</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-6,08; 6,86</t>
+          <t>-7,36; 5,51</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-7,93; 18,91</t>
+          <t>-7,34; 19,54</t>
         </is>
       </c>
     </row>
@@ -1122,32 +1122,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,45; 13,95</t>
+          <t>-0,91; 15,0</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,28; 11,37</t>
+          <t>-1,29; 12,06</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-8,17; 5,76</t>
+          <t>-9,04; 5,88</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,49; 16,64</t>
+          <t>-0,92; 17,91</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,3; 13,57</t>
+          <t>-1,32; 14,33</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-8,66; 6,45</t>
+          <t>-9,53; 6,67</t>
         </is>
       </c>
     </row>
@@ -1202,32 +1202,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>1,84; 10,92</t>
+          <t>1,34; 11,07</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-1,27; 7,54</t>
+          <t>-0,52; 7,56</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>4,7; 13,77</t>
+          <t>4,63; 13,65</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>2,29; 14,69</t>
+          <t>1,64; 14,98</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-1,58; 10,36</t>
+          <t>-0,65; 10,26</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>6,78; 21,73</t>
+          <t>6,64; 21,43</t>
         </is>
       </c>
     </row>
